--- a/data/topology_intradayNTC.xlsx
+++ b/data/topology_intradayNTC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nordicrsc-my.sharepoint.com/personal/jlm_nordic-rcc_net/Documents/Dokumenter/topology/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="453" documentId="8_{28EFB05D-36F0-44BB-AB8B-754CA84D9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68661AF4-5DAB-45AE-B5CF-981814B8967F}"/>
+  <xr:revisionPtr revIDLastSave="455" documentId="8_{28EFB05D-36F0-44BB-AB8B-754CA84D9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{032CFC8E-DE8B-4660-9D53-37AAB29C1175}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5490" windowWidth="38640" windowHeight="21120" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
+    <workbookView xWindow="44805" yWindow="2520" windowWidth="14340" windowHeight="7245" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="metaData" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="167">
   <si>
     <t>DK1</t>
   </si>
@@ -535,6 +535,12 @@
   </si>
   <si>
     <t>createdDate</t>
+  </si>
+  <si>
+    <t>topologyType</t>
+  </si>
+  <si>
+    <t>ntcMarket</t>
   </si>
 </sst>
 </file>
@@ -970,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AC1CD3-5B58-418C-B7E6-C6C1748DD1AD}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -983,7 +989,7 @@
     <col min="4" max="4" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -996,8 +1002,11 @@
       <c r="D1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -1009,6 +1018,9 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
